--- a/backend/data/test_certificates.xlsx
+++ b/backend/data/test_certificates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyeongha\GitHub\certmanager\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7541B3-AB51-4871-BC2B-DAE392C06DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5465A1A-3ED4-4EEC-BCC3-20937508C844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2265" windowWidth="21600" windowHeight="11295" xr2:uid="{99D9C054-AB04-4B05-A563-EE2C4E84984A}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{99D9C054-AB04-4B05-A563-EE2C4E84984A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>issue_date</t>
   </si>
   <si>
-    <t>session</t>
-  </si>
-  <si>
     <t>postal_code</t>
   </si>
   <si>
@@ -87,10 +84,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>edu_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>김철수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -212,6 +205,14 @@
   </si>
   <si>
     <t>jisung_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>center_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>center_session</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +611,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -627,427 +628,427 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1">
         <v>45778</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1">
         <v>45778</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>45778</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>45779</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>45779</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>45779</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
         <v>45782</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
         <v>45782</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>45782</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
         <v>45782</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
         <v>45782</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1">
         <v>45783</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
         <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/test_certificates.xlsx
+++ b/backend/data/test_certificates.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyeongha\GitHub\certmanager\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5465A1A-3ED4-4EEC-BCC3-20937508C844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52B0E5E-E698-486C-879A-3E8C9CF701CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{99D9C054-AB04-4B05-A563-EE2C4E84984A}"/>
+    <workbookView xWindow="12270" yWindow="5940" windowWidth="21600" windowHeight="11295" xr2:uid="{99D9C054-AB04-4B05-A563-EE2C4E84984A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>issue_date</t>
   </si>
@@ -54,17 +54,10 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>issue_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>phone_number</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1기</t>
-  </si>
-  <si>
     <t>이영희</t>
   </si>
   <si>
@@ -96,10 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>한국교육원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>010-2222-2222</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -157,22 +146,10 @@
     <t>2025-T-000012</t>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>자격종류2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>자격종류3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,18 +158,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>자격종류5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>chulsoo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -212,7 +181,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>center_session</t>
+    <t>한국교육원_1기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국교육원_2기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국교육원_3기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국교육원_4기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국교육원_5기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -608,451 +593,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355387E5-3560-4326-A538-6F57D7F26FF7}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45779</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45779</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45779</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45782</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45782</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45782</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45782</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45782</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45783</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45778</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45778</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45778</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45779</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H13" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45779</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45779</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45782</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45782</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45782</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45782</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45782</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45783</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M4" xr:uid="{355387E5-3560-4326-A538-6F57D7F26FF7}"/>
+  <autoFilter ref="A1:K4" xr:uid="{355387E5-3560-4326-A538-6F57D7F26FF7}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
